--- a/results/Results.xlsx
+++ b/results/Results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1840" windowWidth="14460" windowHeight="10300" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="400" yWindow="2220" windowWidth="14460" windowHeight="10300" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BlogMicro" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="12">
   <si>
     <t>Algorithm</t>
   </si>
@@ -407,7 +407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -777,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1145,10 +1145,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1471,6 +1471,76 @@
         <v>39.08</v>
       </c>
     </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>32.14</v>
+      </c>
+      <c r="C10">
+        <v>34.57</v>
+      </c>
+      <c r="D10">
+        <v>35.93</v>
+      </c>
+      <c r="E10">
+        <v>36.81</v>
+      </c>
+      <c r="F10">
+        <v>37.43</v>
+      </c>
+      <c r="G10">
+        <v>37.89</v>
+      </c>
+      <c r="H10">
+        <v>38.26</v>
+      </c>
+      <c r="I10">
+        <v>38.54</v>
+      </c>
+      <c r="J10">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="K10">
+        <v>39.01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>31.53</v>
+      </c>
+      <c r="C11">
+        <v>33.94</v>
+      </c>
+      <c r="D11">
+        <v>35.21</v>
+      </c>
+      <c r="E11">
+        <v>36</v>
+      </c>
+      <c r="F11">
+        <v>36.64</v>
+      </c>
+      <c r="G11">
+        <v>37.9</v>
+      </c>
+      <c r="H11">
+        <v>37.44</v>
+      </c>
+      <c r="I11">
+        <v>37.770000000000003</v>
+      </c>
+      <c r="J11">
+        <v>38</v>
+      </c>
+      <c r="K11">
+        <v>38.21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1478,10 +1548,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="A11:K16"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1804,6 +1874,76 @@
         <v>25.5</v>
       </c>
     </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>13.8</v>
+      </c>
+      <c r="C10">
+        <v>17.3</v>
+      </c>
+      <c r="D10">
+        <v>19.739999999999998</v>
+      </c>
+      <c r="E10">
+        <v>21.26</v>
+      </c>
+      <c r="F10">
+        <v>22.44</v>
+      </c>
+      <c r="G10">
+        <v>23.36</v>
+      </c>
+      <c r="H10">
+        <v>24.12</v>
+      </c>
+      <c r="I10">
+        <v>24.74</v>
+      </c>
+      <c r="J10">
+        <v>25.32</v>
+      </c>
+      <c r="K10">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>13.69</v>
+      </c>
+      <c r="C11">
+        <v>17.27</v>
+      </c>
+      <c r="D11">
+        <v>19.55</v>
+      </c>
+      <c r="E11">
+        <v>21.06</v>
+      </c>
+      <c r="F11">
+        <v>22.22</v>
+      </c>
+      <c r="G11">
+        <v>23</v>
+      </c>
+      <c r="H11">
+        <v>23.65</v>
+      </c>
+      <c r="I11">
+        <v>24.24</v>
+      </c>
+      <c r="J11">
+        <v>24.71</v>
+      </c>
+      <c r="K11">
+        <v>25.09</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/results/Results.xlsx
+++ b/results/Results.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="400" yWindow="2220" windowWidth="14460" windowHeight="10300" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="400" yWindow="2220" windowWidth="24140" windowHeight="13600" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="BlogMicro" sheetId="1" r:id="rId1"/>
     <sheet name="BlogMacro" sheetId="2" r:id="rId2"/>
-    <sheet name="Flickrmicro2" sheetId="4" r:id="rId3"/>
-    <sheet name="FlickrMacro" sheetId="3" r:id="rId4"/>
+    <sheet name="EmailMicro" sheetId="5" r:id="rId3"/>
+    <sheet name="EmailMacro" sheetId="6" r:id="rId4"/>
+    <sheet name="Flickrmicro2" sheetId="4" r:id="rId5"/>
+    <sheet name="FlickrMacro" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="12">
   <si>
     <t>Algorithm</t>
   </si>
@@ -777,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1144,6 +1146,200 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0.1</v>
+      </c>
+      <c r="C1">
+        <v>0.2</v>
+      </c>
+      <c r="D1">
+        <v>0.3</v>
+      </c>
+      <c r="E1">
+        <v>0.4</v>
+      </c>
+      <c r="F1">
+        <v>0.5</v>
+      </c>
+      <c r="G1">
+        <v>0.6</v>
+      </c>
+      <c r="H1">
+        <v>0.7</v>
+      </c>
+      <c r="I1">
+        <v>0.8</v>
+      </c>
+      <c r="J1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0.1</v>
+      </c>
+      <c r="C1">
+        <v>0.2</v>
+      </c>
+      <c r="D1">
+        <v>0.3</v>
+      </c>
+      <c r="E1">
+        <v>0.4</v>
+      </c>
+      <c r="F1">
+        <v>0.5</v>
+      </c>
+      <c r="G1">
+        <v>0.6</v>
+      </c>
+      <c r="H1">
+        <v>0.7</v>
+      </c>
+      <c r="I1">
+        <v>0.8</v>
+      </c>
+      <c r="J1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>0.23597989949748699</v>
+      </c>
+      <c r="C2">
+        <v>0.34266497461928902</v>
+      </c>
+      <c r="D2">
+        <v>0.41379487179487101</v>
+      </c>
+      <c r="E2">
+        <v>0.46468911917098399</v>
+      </c>
+      <c r="F2">
+        <v>0.50350785340314097</v>
+      </c>
+      <c r="G2">
+        <v>0.53021164021164002</v>
+      </c>
+      <c r="H2">
+        <v>0.55724598930481195</v>
+      </c>
+      <c r="I2">
+        <v>0.57145945945945897</v>
+      </c>
+      <c r="J2">
+        <v>0.58754098360655704</v>
+      </c>
+      <c r="K2">
+        <v>0.60218232044198905</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
@@ -1546,7 +1742,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>

--- a/results/Results.xlsx
+++ b/results/Results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="400" yWindow="2220" windowWidth="24140" windowHeight="13600" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="2280" yWindow="-19600" windowWidth="21220" windowHeight="14300" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="BlogMicro" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="25">
   <si>
     <t>Algorithm</t>
   </si>
@@ -65,6 +65,45 @@
   </si>
   <si>
     <t>40..50</t>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+  </si>
+  <si>
+    <t>WALKS 40, PATHS 20</t>
+  </si>
+  <si>
+    <t>WALKS 40, PATHS 40</t>
+  </si>
+  <si>
+    <t>WALKS 80, PATHS 20</t>
+  </si>
+  <si>
+    <t>40 40</t>
+  </si>
+  <si>
+    <t>40 20</t>
+  </si>
+  <si>
+    <t>80 20</t>
+  </si>
+  <si>
+    <t>0.20526222364483818, 0.23471162425631692, 0.2505386775487437, 0.2620214589926452, 0.27054021063205813, 0.27680054911293805, 0.28328910423552395, 0.2860790876488125, 0.2834074901380005</t>
+  </si>
+  <si>
+    <t>0.20222077939073374, 0.233042044316689, 0.25006116954705415, 0.26076507840488705, 0.26918519683110503, 0.27635756182607063, 0.2778519801343976, 0.28072393923189765, 0.2808988836518536</t>
+  </si>
+  <si>
+    <t>0.2038499854599815, 0.2331129087985932, 0.2497673445157441, 0.26142824482481586, 0.26769568398954513, 0.27228849952634027, 0.2769468909099822, 0.27915273273123564, 0.27724523508928034</t>
+  </si>
+  <si>
+    <t>0.20556494381637513, 0.2320013865868938, 0.2483716864425395, 0.259684368213572, 0.26756675757304366, 0.27551489986781175, 0.2791317617456926, 0.2837463865953462, 0.28332622379989914</t>
+  </si>
+  <si>
+    <t>0.19934311958187076, 0.22920582778514684, 0.24293508778361333, 0.25389434353133045, 0.26112167677276577, 0.26555880222517725, 0.27015719471486005, 0.27201985123665984, 0.2750093083543721</t>
+  </si>
+  <si>
+    <t>0.19194175056043947, 0.22081562508004823, 0.23558220009758885, 0.2480751670242422, 0.25532401574189245, 0.2611547695757132, 0.2677750973368754, 0.2707950525110432, 0.2690839229564004</t>
   </si>
 </sst>
 </file>
@@ -113,8 +152,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -125,13 +166,15 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -407,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -770,6 +813,789 @@
         <v>11</v>
       </c>
     </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0.1</v>
+      </c>
+      <c r="C14">
+        <v>0.2</v>
+      </c>
+      <c r="D14">
+        <v>0.3</v>
+      </c>
+      <c r="E14">
+        <v>0.4</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14">
+        <v>0.6</v>
+      </c>
+      <c r="H14">
+        <v>0.7</v>
+      </c>
+      <c r="I14">
+        <v>0.8</v>
+      </c>
+      <c r="J14">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>0.35136480808925302</v>
+      </c>
+      <c r="C15">
+        <v>0.37717473026218201</v>
+      </c>
+      <c r="D15">
+        <v>0.391075542892241</v>
+      </c>
+      <c r="E15">
+        <v>0.40058710808541798</v>
+      </c>
+      <c r="F15">
+        <v>0.40690407145283303</v>
+      </c>
+      <c r="G15">
+        <v>0.41140901516435802</v>
+      </c>
+      <c r="H15">
+        <v>0.41646034824244699</v>
+      </c>
+      <c r="I15">
+        <v>0.41987077572703402</v>
+      </c>
+      <c r="J15">
+        <v>0.42174903466498898</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>0.35164809317082402</v>
+      </c>
+      <c r="C16">
+        <v>0.37786080832033703</v>
+      </c>
+      <c r="D16">
+        <v>0.391305183247868</v>
+      </c>
+      <c r="E16">
+        <v>0.400872501732635</v>
+      </c>
+      <c r="F16">
+        <v>0.405806472812694</v>
+      </c>
+      <c r="G16">
+        <v>0.41084130065024399</v>
+      </c>
+      <c r="H16">
+        <v>0.41515486012853098</v>
+      </c>
+      <c r="I16">
+        <v>0.41489886533676001</v>
+      </c>
+      <c r="J16">
+        <v>0.419376277999503</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>0.35211664945809001</v>
+      </c>
+      <c r="C17">
+        <v>0.37859037497235998</v>
+      </c>
+      <c r="D17">
+        <v>0.39193938989959598</v>
+      </c>
+      <c r="E17">
+        <v>0.40107343828442998</v>
+      </c>
+      <c r="F17">
+        <v>0.40778347772051998</v>
+      </c>
+      <c r="G17">
+        <v>0.41129390424867301</v>
+      </c>
+      <c r="H17">
+        <v>0.41399798058841297</v>
+      </c>
+      <c r="I17">
+        <v>0.41836478736281602</v>
+      </c>
+      <c r="J17">
+        <v>0.424967612860706</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>0.347934841304683</v>
+      </c>
+      <c r="C18">
+        <v>0.37732248399186202</v>
+      </c>
+      <c r="D18">
+        <v>0.38863204863603201</v>
+      </c>
+      <c r="E18">
+        <v>0.39726298300302298</v>
+      </c>
+      <c r="F18">
+        <v>0.40326832876267599</v>
+      </c>
+      <c r="G18">
+        <v>0.40899476953667502</v>
+      </c>
+      <c r="H18">
+        <v>0.41165946950697802</v>
+      </c>
+      <c r="I18">
+        <v>0.41278355916766502</v>
+      </c>
+      <c r="J18">
+        <v>0.41389659603008599</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>0.349726794950106</v>
+      </c>
+      <c r="C19">
+        <v>0.375407020716784</v>
+      </c>
+      <c r="D19">
+        <v>0.38916978229281401</v>
+      </c>
+      <c r="E19">
+        <v>0.39951832236451801</v>
+      </c>
+      <c r="F19">
+        <v>0.40568717952131</v>
+      </c>
+      <c r="G19">
+        <v>0.41072483905750901</v>
+      </c>
+      <c r="H19">
+        <v>0.41436445554529799</v>
+      </c>
+      <c r="I19">
+        <v>0.41646804509407498</v>
+      </c>
+      <c r="J19">
+        <v>0.41839774250289102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>0.34508984595117298</v>
+      </c>
+      <c r="C20">
+        <v>0.370223859028666</v>
+      </c>
+      <c r="D20">
+        <v>0.38579640405273902</v>
+      </c>
+      <c r="E20">
+        <v>0.39326592764629997</v>
+      </c>
+      <c r="F20">
+        <v>0.399748071760615</v>
+      </c>
+      <c r="G20">
+        <v>0.40405266863839101</v>
+      </c>
+      <c r="H20">
+        <v>0.40848448045540298</v>
+      </c>
+      <c r="I20">
+        <v>0.41355980443178098</v>
+      </c>
+      <c r="J20">
+        <v>0.41523686034392099</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <v>0.324030571074581</v>
+      </c>
+      <c r="C21">
+        <v>0.35292680262991399</v>
+      </c>
+      <c r="D21">
+        <v>0.36998602696872601</v>
+      </c>
+      <c r="E21">
+        <v>0.38149486248849401</v>
+      </c>
+      <c r="F21">
+        <v>0.38870661021206598</v>
+      </c>
+      <c r="G21">
+        <v>0.39159803996854498</v>
+      </c>
+      <c r="H21">
+        <v>0.395708771777881</v>
+      </c>
+      <c r="I21">
+        <v>0.39862276027667198</v>
+      </c>
+      <c r="J21">
+        <v>0.39930505420760698</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>0.1</v>
+      </c>
+      <c r="C24">
+        <v>0.2</v>
+      </c>
+      <c r="D24">
+        <v>0.3</v>
+      </c>
+      <c r="E24">
+        <v>0.4</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+      <c r="G24">
+        <v>0.6</v>
+      </c>
+      <c r="H24">
+        <v>0.7</v>
+      </c>
+      <c r="I24">
+        <v>0.8</v>
+      </c>
+      <c r="J24">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>0.33858244519429298</v>
+      </c>
+      <c r="C25">
+        <v>0.36602776757899702</v>
+      </c>
+      <c r="D25">
+        <v>0.38055924101114302</v>
+      </c>
+      <c r="E25">
+        <v>0.39045844887039899</v>
+      </c>
+      <c r="F25">
+        <v>0.39763825416209497</v>
+      </c>
+      <c r="G25">
+        <v>0.40237517126782202</v>
+      </c>
+      <c r="H25">
+        <v>0.40558039066687501</v>
+      </c>
+      <c r="I25">
+        <v>0.40950562543068803</v>
+      </c>
+      <c r="J25">
+        <v>0.41267535198065503</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>0.34003990489202701</v>
+      </c>
+      <c r="C26">
+        <v>0.36615210625758798</v>
+      </c>
+      <c r="D26">
+        <v>0.38083633831483998</v>
+      </c>
+      <c r="E26">
+        <v>0.38882126973757503</v>
+      </c>
+      <c r="F26">
+        <v>0.39488632357486803</v>
+      </c>
+      <c r="G26">
+        <v>0.40020620738607499</v>
+      </c>
+      <c r="H26">
+        <v>0.404463136083899</v>
+      </c>
+      <c r="I26">
+        <v>0.407362107522793</v>
+      </c>
+      <c r="J26">
+        <v>0.411248368386468</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>0.33934606176086801</v>
+      </c>
+      <c r="C27">
+        <v>0.36635923569977402</v>
+      </c>
+      <c r="D27">
+        <v>0.3790079776743</v>
+      </c>
+      <c r="E27">
+        <v>0.388599909198381</v>
+      </c>
+      <c r="F27">
+        <v>0.394756607223683</v>
+      </c>
+      <c r="G27">
+        <v>0.39821407700349898</v>
+      </c>
+      <c r="H27">
+        <v>0.40220557790815498</v>
+      </c>
+      <c r="I27">
+        <v>0.40481563372714102</v>
+      </c>
+      <c r="J27">
+        <v>0.40440508902273498</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>0.33749119580465298</v>
+      </c>
+      <c r="C28">
+        <v>0.36528604726642</v>
+      </c>
+      <c r="D28">
+        <v>0.380207043528071</v>
+      </c>
+      <c r="E28">
+        <v>0.389360389524114</v>
+      </c>
+      <c r="F28">
+        <v>0.39592231751636803</v>
+      </c>
+      <c r="G28">
+        <v>0.40168243517795299</v>
+      </c>
+      <c r="H28">
+        <v>0.40511322274898498</v>
+      </c>
+      <c r="I28">
+        <v>0.40793399263035302</v>
+      </c>
+      <c r="J28">
+        <v>0.410559142470722</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29">
+        <v>0.33838898203316198</v>
+      </c>
+      <c r="C29">
+        <v>0.36685742996804199</v>
+      </c>
+      <c r="D29">
+        <v>0.38108062325908498</v>
+      </c>
+      <c r="E29">
+        <v>0.39072751248820498</v>
+      </c>
+      <c r="F29">
+        <v>0.39593280416179499</v>
+      </c>
+      <c r="G29">
+        <v>0.40009695986599703</v>
+      </c>
+      <c r="H29">
+        <v>0.40688231837327499</v>
+      </c>
+      <c r="I29">
+        <v>0.40906865241896101</v>
+      </c>
+      <c r="J29">
+        <v>0.41038803112130401</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30">
+        <v>0.33237182477998101</v>
+      </c>
+      <c r="C30">
+        <v>0.360009136147385</v>
+      </c>
+      <c r="D30">
+        <v>0.37354182128626701</v>
+      </c>
+      <c r="E30">
+        <v>0.38410341137361598</v>
+      </c>
+      <c r="F30">
+        <v>0.39059943068027297</v>
+      </c>
+      <c r="G30">
+        <v>0.39463445429271699</v>
+      </c>
+      <c r="H30">
+        <v>0.39855862969890199</v>
+      </c>
+      <c r="I30">
+        <v>0.40242796821639298</v>
+      </c>
+      <c r="J30">
+        <v>0.40603524064176799</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <v>0.31694384923975899</v>
+      </c>
+      <c r="C31">
+        <v>0.34617014787311301</v>
+      </c>
+      <c r="D31">
+        <v>0.361643485330506</v>
+      </c>
+      <c r="E31">
+        <v>0.370564524233849</v>
+      </c>
+      <c r="F31">
+        <v>0.376917497365856</v>
+      </c>
+      <c r="G31">
+        <v>0.38338124828284498</v>
+      </c>
+      <c r="H31">
+        <v>0.38915291491807202</v>
+      </c>
+      <c r="I31">
+        <v>0.39315309606820897</v>
+      </c>
+      <c r="J31">
+        <v>0.39399725245904599</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>0.1</v>
+      </c>
+      <c r="C34">
+        <v>0.2</v>
+      </c>
+      <c r="D34">
+        <v>0.3</v>
+      </c>
+      <c r="E34">
+        <v>0.4</v>
+      </c>
+      <c r="F34">
+        <v>0.5</v>
+      </c>
+      <c r="G34">
+        <v>0.6</v>
+      </c>
+      <c r="H34">
+        <v>0.7</v>
+      </c>
+      <c r="I34">
+        <v>0.8</v>
+      </c>
+      <c r="J34">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>0.352395705513735</v>
+      </c>
+      <c r="C35">
+        <v>0.37826562153754301</v>
+      </c>
+      <c r="D35">
+        <v>0.39127990126791401</v>
+      </c>
+      <c r="E35">
+        <v>0.39957964126730799</v>
+      </c>
+      <c r="F35">
+        <v>0.40549988018404398</v>
+      </c>
+      <c r="G35">
+        <v>0.409606566608261</v>
+      </c>
+      <c r="H35">
+        <v>0.41364909674855499</v>
+      </c>
+      <c r="I35">
+        <v>0.41656076614809401</v>
+      </c>
+      <c r="J35">
+        <v>0.42104176089977302</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36">
+        <v>0.35393076314489402</v>
+      </c>
+      <c r="C36">
+        <v>0.37987229330245398</v>
+      </c>
+      <c r="D36">
+        <v>0.39260314193343998</v>
+      </c>
+      <c r="E36">
+        <v>0.40176014869635002</v>
+      </c>
+      <c r="F36">
+        <v>0.407699994502629</v>
+      </c>
+      <c r="G36">
+        <v>0.413931216229871</v>
+      </c>
+      <c r="H36">
+        <v>0.41814668978279501</v>
+      </c>
+      <c r="I36">
+        <v>0.42125270272362397</v>
+      </c>
+      <c r="J36">
+        <v>0.42372896188026599</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <v>0.35098897154652198</v>
+      </c>
+      <c r="C37">
+        <v>0.37847930581511802</v>
+      </c>
+      <c r="D37">
+        <v>0.39286667400371</v>
+      </c>
+      <c r="E37">
+        <v>0.40196690299538002</v>
+      </c>
+      <c r="F37">
+        <v>0.40768241421102902</v>
+      </c>
+      <c r="G37">
+        <v>0.412955442409639</v>
+      </c>
+      <c r="H37">
+        <v>0.41574533292777699</v>
+      </c>
+      <c r="I37">
+        <v>0.41961754004554502</v>
+      </c>
+      <c r="J37">
+        <v>0.41996144974625899</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38">
+        <v>0.35260487266344498</v>
+      </c>
+      <c r="C38">
+        <v>0.37846785512811598</v>
+      </c>
+      <c r="D38">
+        <v>0.393131457371659</v>
+      </c>
+      <c r="E38">
+        <v>0.403457720680861</v>
+      </c>
+      <c r="F38">
+        <v>0.40807424751496002</v>
+      </c>
+      <c r="G38">
+        <v>0.41296748240187098</v>
+      </c>
+      <c r="H38">
+        <v>0.416574989158144</v>
+      </c>
+      <c r="I38">
+        <v>0.418134526632857</v>
+      </c>
+      <c r="J38">
+        <v>0.41894654183299102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39">
+        <v>0.35292748256033801</v>
+      </c>
+      <c r="C39">
+        <v>0.37870583444107703</v>
+      </c>
+      <c r="D39">
+        <v>0.39266747596146501</v>
+      </c>
+      <c r="E39">
+        <v>0.40165024531367799</v>
+      </c>
+      <c r="F39">
+        <v>0.40877501460051802</v>
+      </c>
+      <c r="G39">
+        <v>0.41382323650886299</v>
+      </c>
+      <c r="H39">
+        <v>0.41636099523201098</v>
+      </c>
+      <c r="I39">
+        <v>0.42025472745966502</v>
+      </c>
+      <c r="J39">
+        <v>0.421083380406024</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40">
+        <v>0.34615304819311998</v>
+      </c>
+      <c r="C40">
+        <v>0.37433511778348399</v>
+      </c>
+      <c r="D40">
+        <v>0.38836779620189599</v>
+      </c>
+      <c r="E40">
+        <v>0.398030783552141</v>
+      </c>
+      <c r="F40">
+        <v>0.40402913756828601</v>
+      </c>
+      <c r="G40">
+        <v>0.40904631912592099</v>
+      </c>
+      <c r="H40">
+        <v>0.41381767922146201</v>
+      </c>
+      <c r="I40">
+        <v>0.41522228914182502</v>
+      </c>
+      <c r="J40">
+        <v>0.41821634001374203</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41">
+        <v>0.330824270254504</v>
+      </c>
+      <c r="C41">
+        <v>0.35992180983768501</v>
+      </c>
+      <c r="D41">
+        <v>0.37544736251812999</v>
+      </c>
+      <c r="E41">
+        <v>0.385848813526324</v>
+      </c>
+      <c r="F41">
+        <v>0.39244520807421801</v>
+      </c>
+      <c r="G41">
+        <v>0.39772839259231302</v>
+      </c>
+      <c r="H41">
+        <v>0.40190824144577098</v>
+      </c>
+      <c r="I41">
+        <v>0.40576635702374703</v>
+      </c>
+      <c r="J41">
+        <v>0.40649433550467001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -777,10 +1603,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J11"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1140,6 +1966,645 @@
         <v>26.08</v>
       </c>
     </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0.1</v>
+      </c>
+      <c r="C15">
+        <v>0.2</v>
+      </c>
+      <c r="D15">
+        <v>0.3</v>
+      </c>
+      <c r="E15">
+        <v>0.4</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <v>0.6</v>
+      </c>
+      <c r="H15">
+        <v>0.7</v>
+      </c>
+      <c r="I15">
+        <v>0.8</v>
+      </c>
+      <c r="J15">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>0.20429782979091601</v>
+      </c>
+      <c r="C16">
+        <v>0.23072163349796901</v>
+      </c>
+      <c r="D16">
+        <v>0.24529792850641899</v>
+      </c>
+      <c r="E16">
+        <v>0.25803457883816899</v>
+      </c>
+      <c r="F16">
+        <v>0.26537978174541899</v>
+      </c>
+      <c r="G16">
+        <v>0.26947409943450401</v>
+      </c>
+      <c r="H16">
+        <v>0.27490304387435699</v>
+      </c>
+      <c r="I16">
+        <v>0.27804677677119499</v>
+      </c>
+      <c r="J16">
+        <v>0.275891678273334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>0.20302961760215099</v>
+      </c>
+      <c r="C17">
+        <v>0.23142006136257201</v>
+      </c>
+      <c r="D17">
+        <v>0.24842669488593999</v>
+      </c>
+      <c r="E17">
+        <v>0.25960346471802997</v>
+      </c>
+      <c r="F17">
+        <v>0.26633516014831798</v>
+      </c>
+      <c r="G17">
+        <v>0.27068293844518398</v>
+      </c>
+      <c r="H17">
+        <v>0.27541288549628601</v>
+      </c>
+      <c r="I17">
+        <v>0.27408449607305402</v>
+      </c>
+      <c r="J17">
+        <v>0.273915896581439</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>0.20519646294372301</v>
+      </c>
+      <c r="C18">
+        <v>0.23344120989512901</v>
+      </c>
+      <c r="D18">
+        <v>0.248736033938146</v>
+      </c>
+      <c r="E18">
+        <v>0.25881677543544901</v>
+      </c>
+      <c r="F18">
+        <v>0.266534232587675</v>
+      </c>
+      <c r="G18">
+        <v>0.27094735422989302</v>
+      </c>
+      <c r="H18">
+        <v>0.27468874395618997</v>
+      </c>
+      <c r="I18">
+        <v>0.279775221548479</v>
+      </c>
+      <c r="J18">
+        <v>0.28084807576328003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>0.20144335344214501</v>
+      </c>
+      <c r="C19">
+        <v>0.23258840641987599</v>
+      </c>
+      <c r="D19">
+        <v>0.246118411738069</v>
+      </c>
+      <c r="E19">
+        <v>0.255854383743085</v>
+      </c>
+      <c r="F19">
+        <v>0.26293506500807301</v>
+      </c>
+      <c r="G19">
+        <v>0.26824134868641702</v>
+      </c>
+      <c r="H19">
+        <v>0.27176041847226201</v>
+      </c>
+      <c r="I19">
+        <v>0.27394287645582899</v>
+      </c>
+      <c r="J19">
+        <v>0.27800630791734898</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>0.197356125011937</v>
+      </c>
+      <c r="C20">
+        <v>0.22804174569785801</v>
+      </c>
+      <c r="D20">
+        <v>0.244639945961864</v>
+      </c>
+      <c r="E20">
+        <v>0.25638218772191801</v>
+      </c>
+      <c r="F20">
+        <v>0.26226515552485102</v>
+      </c>
+      <c r="G20">
+        <v>0.268724942241089</v>
+      </c>
+      <c r="H20">
+        <v>0.27198233157534801</v>
+      </c>
+      <c r="I20">
+        <v>0.27648943028759698</v>
+      </c>
+      <c r="J20">
+        <v>0.27536239503732401</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>0.19564119667006399</v>
+      </c>
+      <c r="C21">
+        <v>0.22336201056073199</v>
+      </c>
+      <c r="D21">
+        <v>0.23993546394225099</v>
+      </c>
+      <c r="E21">
+        <v>0.24810274451120001</v>
+      </c>
+      <c r="F21">
+        <v>0.25595489875243099</v>
+      </c>
+      <c r="G21">
+        <v>0.260469025303949</v>
+      </c>
+      <c r="H21">
+        <v>0.26440060285903699</v>
+      </c>
+      <c r="I21">
+        <v>0.27084684488258498</v>
+      </c>
+      <c r="J21">
+        <v>0.26800638578945502</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>0.185577618655482</v>
+      </c>
+      <c r="C22">
+        <v>0.212641056981419</v>
+      </c>
+      <c r="D22">
+        <v>0.229404482255782</v>
+      </c>
+      <c r="E22">
+        <v>0.24030767672235301</v>
+      </c>
+      <c r="F22">
+        <v>0.24623845702960501</v>
+      </c>
+      <c r="G22">
+        <v>0.25163043083474501</v>
+      </c>
+      <c r="H22">
+        <v>0.25496685356701698</v>
+      </c>
+      <c r="I22">
+        <v>0.25868851652290498</v>
+      </c>
+      <c r="J22">
+        <v>0.25469264006363901</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>0.1</v>
+      </c>
+      <c r="C25">
+        <v>0.2</v>
+      </c>
+      <c r="D25">
+        <v>0.3</v>
+      </c>
+      <c r="E25">
+        <v>0.4</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+      <c r="G25">
+        <v>0.6</v>
+      </c>
+      <c r="H25">
+        <v>0.7</v>
+      </c>
+      <c r="I25">
+        <v>0.8</v>
+      </c>
+      <c r="J25">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>0.191999638943391</v>
+      </c>
+      <c r="C26">
+        <v>0.221203152160619</v>
+      </c>
+      <c r="D26">
+        <v>0.23644207979560999</v>
+      </c>
+      <c r="E26">
+        <v>0.24860115949825801</v>
+      </c>
+      <c r="F26">
+        <v>0.256924055684914</v>
+      </c>
+      <c r="G26">
+        <v>0.26126875541622502</v>
+      </c>
+      <c r="H26">
+        <v>0.26610357094373499</v>
+      </c>
+      <c r="I26">
+        <v>0.27155211875260199</v>
+      </c>
+      <c r="J26">
+        <v>0.27238453953960801</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>0.19196776417486999</v>
+      </c>
+      <c r="C27">
+        <v>0.22022536361209299</v>
+      </c>
+      <c r="D27">
+        <v>0.236047366153288</v>
+      </c>
+      <c r="E27">
+        <v>0.246683643959798</v>
+      </c>
+      <c r="F27">
+        <v>0.25498042542201199</v>
+      </c>
+      <c r="G27">
+        <v>0.26173872541842302</v>
+      </c>
+      <c r="H27">
+        <v>0.26471625355860101</v>
+      </c>
+      <c r="I27">
+        <v>0.26870847021128003</v>
+      </c>
+      <c r="J27">
+        <v>0.26957120818577301</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>0.19421653712203199</v>
+      </c>
+      <c r="C28">
+        <v>0.22384597601468001</v>
+      </c>
+      <c r="D28">
+        <v>0.23887227813102899</v>
+      </c>
+      <c r="E28">
+        <v>0.248651214379119</v>
+      </c>
+      <c r="F28">
+        <v>0.25682581965382301</v>
+      </c>
+      <c r="G28">
+        <v>0.261620651224995</v>
+      </c>
+      <c r="H28">
+        <v>0.26413717214540799</v>
+      </c>
+      <c r="I28">
+        <v>0.26736347175619901</v>
+      </c>
+      <c r="J28">
+        <v>0.26171206975754002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>0.192781186610224</v>
+      </c>
+      <c r="C29">
+        <v>0.22313704083385499</v>
+      </c>
+      <c r="D29">
+        <v>0.238092385606754</v>
+      </c>
+      <c r="E29">
+        <v>0.247952872761704</v>
+      </c>
+      <c r="F29">
+        <v>0.25484375760436101</v>
+      </c>
+      <c r="G29">
+        <v>0.26220530427140598</v>
+      </c>
+      <c r="H29">
+        <v>0.26788786970412698</v>
+      </c>
+      <c r="I29">
+        <v>0.27046822671190801</v>
+      </c>
+      <c r="J29">
+        <v>0.27521810103204702</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <v>0.19300336592605</v>
+      </c>
+      <c r="C30">
+        <v>0.224351921681223</v>
+      </c>
+      <c r="D30">
+        <v>0.24088668608795599</v>
+      </c>
+      <c r="E30">
+        <v>0.25005430387859801</v>
+      </c>
+      <c r="F30">
+        <v>0.25699348394430899</v>
+      </c>
+      <c r="G30">
+        <v>0.26230118172308498</v>
+      </c>
+      <c r="H30">
+        <v>0.268338370133759</v>
+      </c>
+      <c r="I30">
+        <v>0.27161564831273599</v>
+      </c>
+      <c r="J30">
+        <v>0.27064731214479998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>0.18850084580342399</v>
+      </c>
+      <c r="C31">
+        <v>0.21635479191031701</v>
+      </c>
+      <c r="D31">
+        <v>0.231665080214186</v>
+      </c>
+      <c r="E31">
+        <v>0.24172166553167601</v>
+      </c>
+      <c r="F31">
+        <v>0.24885890116933901</v>
+      </c>
+      <c r="G31">
+        <v>0.25429004900235402</v>
+      </c>
+      <c r="H31">
+        <v>0.25976468347415199</v>
+      </c>
+      <c r="I31">
+        <v>0.26332666158746798</v>
+      </c>
+      <c r="J31">
+        <v>0.264246508810008</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>0.18078543265484001</v>
+      </c>
+      <c r="C32">
+        <v>0.20828587393335901</v>
+      </c>
+      <c r="D32">
+        <v>0.22377843435087899</v>
+      </c>
+      <c r="E32">
+        <v>0.23239479318267001</v>
+      </c>
+      <c r="F32">
+        <v>0.23793589086269501</v>
+      </c>
+      <c r="G32">
+        <v>0.244408101329181</v>
+      </c>
+      <c r="H32">
+        <v>0.24947054210681099</v>
+      </c>
+      <c r="I32">
+        <v>0.252708634871329</v>
+      </c>
+      <c r="J32">
+        <v>0.25432397211581198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>0.1</v>
+      </c>
+      <c r="C35">
+        <v>0.2</v>
+      </c>
+      <c r="D35">
+        <v>0.3</v>
+      </c>
+      <c r="E35">
+        <v>0.4</v>
+      </c>
+      <c r="F35">
+        <v>0.5</v>
+      </c>
+      <c r="G35">
+        <v>0.6</v>
+      </c>
+      <c r="H35">
+        <v>0.7</v>
+      </c>
+      <c r="I35">
+        <v>0.8</v>
+      </c>
+      <c r="J35">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>0.20473171983213201</v>
+      </c>
+      <c r="C36">
+        <v>0.231982960001582</v>
+      </c>
+      <c r="D36">
+        <v>0.248715380229728</v>
+      </c>
+      <c r="E36">
+        <v>0.25812968352329002</v>
+      </c>
+      <c r="F36">
+        <v>0.26709170946831001</v>
+      </c>
+      <c r="G36">
+        <v>0.271207455504408</v>
+      </c>
+      <c r="H36">
+        <v>0.27356185500556301</v>
+      </c>
+      <c r="I36">
+        <v>0.27422753420561402</v>
+      </c>
+      <c r="J36">
+        <v>0.27644378117033802</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1147,79 +2612,1152 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J9"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39:K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B2">
+        <v>0.01</v>
+      </c>
+      <c r="C2">
+        <v>0.02</v>
+      </c>
+      <c r="D2">
+        <v>0.03</v>
+      </c>
+      <c r="E2">
+        <v>0.04</v>
+      </c>
+      <c r="F2">
+        <v>0.5</v>
+      </c>
+      <c r="G2">
+        <v>0.06</v>
+      </c>
+      <c r="H2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I2">
+        <v>0.08</v>
+      </c>
+      <c r="J2">
+        <v>0.09</v>
+      </c>
+      <c r="K2">
         <v>0.1</v>
       </c>
-      <c r="C1">
-        <v>0.2</v>
-      </c>
-      <c r="D1">
-        <v>0.3</v>
-      </c>
-      <c r="E1">
-        <v>0.4</v>
-      </c>
-      <c r="F1">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>0.24512562814070299</v>
+      </c>
+      <c r="C3">
+        <v>0.34134517766497402</v>
+      </c>
+      <c r="D3">
+        <v>0.41176923076923</v>
+      </c>
+      <c r="E3">
+        <v>0.46194300518134701</v>
+      </c>
+      <c r="F3">
+        <v>0.49400523560209397</v>
+      </c>
+      <c r="G3">
+        <v>0.52835978835978803</v>
+      </c>
+      <c r="H3">
+        <v>0.55163101604277998</v>
+      </c>
+      <c r="I3">
+        <v>0.56689189189189204</v>
+      </c>
+      <c r="J3">
+        <v>0.58833333333333304</v>
+      </c>
+      <c r="K3">
+        <v>0.60693370165745797</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>0.23597989949748699</v>
+      </c>
+      <c r="C4">
+        <v>0.34616751269035501</v>
+      </c>
+      <c r="D4">
+        <v>0.41623076923076902</v>
+      </c>
+      <c r="E4">
+        <v>0.46808290155440402</v>
+      </c>
+      <c r="F4">
+        <v>0.50062827225130802</v>
+      </c>
+      <c r="G4">
+        <v>0.53357142857142803</v>
+      </c>
+      <c r="H4">
+        <v>0.55751336898395698</v>
+      </c>
+      <c r="I4">
+        <v>0.58086486486486399</v>
+      </c>
+      <c r="J4">
+        <v>0.599972677595628</v>
+      </c>
+      <c r="K4">
+        <v>0.60969613259668498</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0.230226130653266</v>
+      </c>
+      <c r="C5">
+        <v>0.335888324873096</v>
+      </c>
+      <c r="D5">
+        <v>0.40448717948717899</v>
+      </c>
+      <c r="E5">
+        <v>0.45922279792746101</v>
+      </c>
+      <c r="F5">
+        <v>0.49439790575916198</v>
+      </c>
+      <c r="G5">
+        <v>0.52825396825396798</v>
+      </c>
+      <c r="H5">
+        <v>0.55283422459892995</v>
+      </c>
+      <c r="I5">
+        <v>0.57370270270270196</v>
+      </c>
+      <c r="J5">
+        <v>0.58991803278688504</v>
+      </c>
+      <c r="K5">
+        <v>0.60093922651933696</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0.225552763819095</v>
+      </c>
+      <c r="C6">
+        <v>0.35538071065989801</v>
+      </c>
+      <c r="D6">
+        <v>0.43220512820512802</v>
+      </c>
+      <c r="E6">
+        <v>0.47220207253885998</v>
+      </c>
+      <c r="F6">
+        <v>0.50369109947643897</v>
+      </c>
+      <c r="G6">
+        <v>0.53341269841269801</v>
+      </c>
+      <c r="H6">
+        <v>0.55572192513369001</v>
+      </c>
+      <c r="I6">
+        <v>0.57675675675675597</v>
+      </c>
+      <c r="J6">
+        <v>0.59371584699453495</v>
+      </c>
+      <c r="K6">
+        <v>0.60696132596685004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0.22630653266331599</v>
+      </c>
+      <c r="C7">
+        <v>0.34048223350253798</v>
+      </c>
+      <c r="D7">
+        <v>0.42428205128205099</v>
+      </c>
+      <c r="E7">
+        <v>0.47642487046632098</v>
+      </c>
+      <c r="F7">
+        <v>0.51628272251308904</v>
+      </c>
+      <c r="G7">
+        <v>0.54018518518518499</v>
+      </c>
+      <c r="H7">
+        <v>0.56705882352941195</v>
+      </c>
+      <c r="I7">
+        <v>0.58491891891891801</v>
+      </c>
+      <c r="J7">
+        <v>0.60019125683060104</v>
+      </c>
+      <c r="K7">
+        <v>0.61320441988950203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>0.214472361809045</v>
+      </c>
+      <c r="C8">
+        <v>0.32601522842639502</v>
+      </c>
+      <c r="D8">
+        <v>0.41189743589743499</v>
+      </c>
+      <c r="E8">
+        <v>0.460880829015544</v>
+      </c>
+      <c r="F8">
+        <v>0.50301047120418796</v>
+      </c>
+      <c r="G8">
+        <v>0.53775132275132198</v>
+      </c>
+      <c r="H8">
+        <v>0.56283422459892996</v>
+      </c>
+      <c r="I8">
+        <v>0.58559459459459395</v>
+      </c>
+      <c r="J8">
+        <v>0.60218579234972702</v>
+      </c>
+      <c r="K8">
+        <v>0.61499999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>0.226582914572864</v>
+      </c>
+      <c r="C9">
+        <v>0.331903553299492</v>
+      </c>
+      <c r="D9">
+        <v>0.395102564102564</v>
+      </c>
+      <c r="E9">
+        <v>0.444870466321243</v>
+      </c>
+      <c r="F9">
+        <v>0.48214659685863798</v>
+      </c>
+      <c r="G9">
+        <v>0.52203703703703697</v>
+      </c>
+      <c r="H9">
+        <v>0.54788770053475899</v>
+      </c>
+      <c r="I9">
+        <v>0.56516216216216197</v>
+      </c>
+      <c r="J9">
+        <v>0.58751366120218496</v>
+      </c>
+      <c r="K9">
+        <v>0.60030386740331398</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0.01</v>
+      </c>
+      <c r="C12">
+        <v>0.02</v>
+      </c>
+      <c r="D12">
+        <v>0.03</v>
+      </c>
+      <c r="E12">
+        <v>0.04</v>
+      </c>
+      <c r="F12">
         <v>0.5</v>
       </c>
-      <c r="G1">
-        <v>0.6</v>
-      </c>
-      <c r="H1">
-        <v>0.7</v>
-      </c>
-      <c r="I1">
-        <v>0.8</v>
-      </c>
-      <c r="J1">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="G12">
+        <v>0.06</v>
+      </c>
+      <c r="H12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I12">
+        <v>0.08</v>
+      </c>
+      <c r="J12">
+        <v>0.09</v>
+      </c>
+      <c r="K12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B13">
+        <v>0.24060301507537599</v>
+      </c>
+      <c r="C13">
+        <v>0.35977157360406098</v>
+      </c>
+      <c r="D13">
+        <v>0.41558974358974299</v>
+      </c>
+      <c r="E13">
+        <v>0.46437823834196801</v>
+      </c>
+      <c r="F13">
+        <v>0.50136125654450203</v>
+      </c>
+      <c r="G13">
+        <v>0.53674603174603197</v>
+      </c>
+      <c r="H13">
+        <v>0.55740641711229899</v>
+      </c>
+      <c r="I13">
+        <v>0.576918918918918</v>
+      </c>
+      <c r="J13">
+        <v>0.593524590163934</v>
+      </c>
+      <c r="K13">
+        <v>0.60494475138121495</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B14">
+        <v>0.23296482412060299</v>
+      </c>
+      <c r="C14">
+        <v>0.344086294416243</v>
+      </c>
+      <c r="D14">
+        <v>0.416051282051282</v>
+      </c>
+      <c r="E14">
+        <v>0.46829015544041402</v>
+      </c>
+      <c r="F14">
+        <v>0.49973821989528699</v>
+      </c>
+      <c r="G14">
+        <v>0.53293650793650704</v>
+      </c>
+      <c r="H14">
+        <v>0.55454545454545401</v>
+      </c>
+      <c r="I14">
+        <v>0.56824324324324305</v>
+      </c>
+      <c r="J14">
+        <v>0.58554644808743095</v>
+      </c>
+      <c r="K14">
+        <v>0.60168508287292799</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B15">
+        <v>0.23238693467336599</v>
+      </c>
+      <c r="C15">
+        <v>0.34624365482233499</v>
+      </c>
+      <c r="D15">
+        <v>0.40902564102563999</v>
+      </c>
+      <c r="E15">
+        <v>0.45220207253886002</v>
+      </c>
+      <c r="F15">
+        <v>0.48916230366492103</v>
+      </c>
+      <c r="G15">
+        <v>0.51923280423280405</v>
+      </c>
+      <c r="H15">
+        <v>0.543663101604278</v>
+      </c>
+      <c r="I15">
+        <v>0.56602702702702701</v>
+      </c>
+      <c r="J15">
+        <v>0.58322404371584602</v>
+      </c>
+      <c r="K15">
+        <v>0.59682320441988901</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B16">
+        <v>0.24716080402009999</v>
+      </c>
+      <c r="C16">
+        <v>0.360456852791878</v>
+      </c>
+      <c r="D16">
+        <v>0.41487179487179399</v>
+      </c>
+      <c r="E16">
+        <v>0.45784974093264202</v>
+      </c>
+      <c r="F16">
+        <v>0.49068062827225101</v>
+      </c>
+      <c r="G16">
+        <v>0.51497354497354497</v>
+      </c>
+      <c r="H16">
+        <v>0.54390374331550795</v>
+      </c>
+      <c r="I16">
+        <v>0.56318918918918903</v>
+      </c>
+      <c r="J16">
+        <v>0.58032786885245902</v>
+      </c>
+      <c r="K16">
+        <v>0.59256906077348004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B17">
+        <v>0.246884422110552</v>
+      </c>
+      <c r="C17">
+        <v>0.34347715736040502</v>
+      </c>
+      <c r="D17">
+        <v>0.42341025641025598</v>
+      </c>
+      <c r="E17">
+        <v>0.47761658031088</v>
+      </c>
+      <c r="F17">
+        <v>0.50895287958115099</v>
+      </c>
+      <c r="G17">
+        <v>0.53603174603174597</v>
+      </c>
+      <c r="H17">
+        <v>0.554946524064171</v>
+      </c>
+      <c r="I17">
+        <v>0.57443243243243203</v>
+      </c>
+      <c r="J17">
+        <v>0.59483606557377</v>
+      </c>
+      <c r="K17">
+        <v>0.60988950276243103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B18">
+        <v>0.234748743718592</v>
+      </c>
+      <c r="C18">
+        <v>0.34246192893401001</v>
+      </c>
+      <c r="D18">
+        <v>0.40871794871794798</v>
+      </c>
+      <c r="E18">
+        <v>0.458886010362694</v>
+      </c>
+      <c r="F18">
+        <v>0.50290575916230296</v>
+      </c>
+      <c r="G18">
+        <v>0.52997354497354399</v>
+      </c>
+      <c r="H18">
+        <v>0.55374331550802103</v>
+      </c>
+      <c r="I18">
+        <v>0.57418918918918904</v>
+      </c>
+      <c r="J18">
+        <v>0.591939890710382</v>
+      </c>
+      <c r="K18">
+        <v>0.60790055248618702</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>10</v>
+      </c>
+      <c r="B19">
+        <v>0.21721105527638099</v>
+      </c>
+      <c r="C19">
+        <v>0.31824873096446599</v>
+      </c>
+      <c r="D19">
+        <v>0.38253846153846099</v>
+      </c>
+      <c r="E19">
+        <v>0.436502590673575</v>
+      </c>
+      <c r="F19">
+        <v>0.48201570680628197</v>
+      </c>
+      <c r="G19">
+        <v>0.50566137566137503</v>
+      </c>
+      <c r="H19">
+        <v>0.53216577540106902</v>
+      </c>
+      <c r="I19">
+        <v>0.558378378378378</v>
+      </c>
+      <c r="J19">
+        <v>0.57964480874316904</v>
+      </c>
+      <c r="K19">
+        <v>0.59312154696132502</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>0.01</v>
+      </c>
+      <c r="C22">
+        <v>0.02</v>
+      </c>
+      <c r="D22">
+        <v>0.03</v>
+      </c>
+      <c r="E22">
+        <v>0.04</v>
+      </c>
+      <c r="F22">
+        <v>0.5</v>
+      </c>
+      <c r="G22">
+        <v>0.06</v>
+      </c>
+      <c r="H22">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I22">
+        <v>0.08</v>
+      </c>
+      <c r="J22">
+        <v>0.09</v>
+      </c>
+      <c r="K22">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>0.22994974874371801</v>
+      </c>
+      <c r="C23">
+        <v>0.344086294416243</v>
+      </c>
+      <c r="D23">
+        <v>0.41282051282051202</v>
+      </c>
+      <c r="E23">
+        <v>0.45686528497409301</v>
+      </c>
+      <c r="F23">
+        <v>0.49623036649214602</v>
+      </c>
+      <c r="G23">
+        <v>0.52642857142857102</v>
+      </c>
+      <c r="H23">
+        <v>0.55251336898395698</v>
+      </c>
+      <c r="I23">
+        <v>0.57008108108108102</v>
+      </c>
+      <c r="J23">
+        <v>0.59133879781420695</v>
+      </c>
+      <c r="K23">
+        <v>0.602983425414364</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>0.22494974874371801</v>
+      </c>
+      <c r="C24">
+        <v>0.34649746192893399</v>
+      </c>
+      <c r="D24">
+        <v>0.42176923076923001</v>
+      </c>
+      <c r="E24">
+        <v>0.46212435233160598</v>
+      </c>
+      <c r="F24">
+        <v>0.49712041884816699</v>
+      </c>
+      <c r="G24">
+        <v>0.52619047619047599</v>
+      </c>
+      <c r="H24">
+        <v>0.55160427807486601</v>
+      </c>
+      <c r="I24">
+        <v>0.56686486486486398</v>
+      </c>
+      <c r="J24">
+        <v>0.58762295081967197</v>
+      </c>
+      <c r="K24">
+        <v>0.59781767955801102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>0.227688442211055</v>
+      </c>
+      <c r="C25">
+        <v>0.33522842639593903</v>
+      </c>
+      <c r="D25">
+        <v>0.407205128205128</v>
+      </c>
+      <c r="E25">
+        <v>0.456528497409326</v>
+      </c>
+      <c r="F25">
+        <v>0.49678010471204098</v>
+      </c>
+      <c r="G25">
+        <v>0.52973544973544995</v>
+      </c>
+      <c r="H25">
+        <v>0.55724598930481195</v>
+      </c>
+      <c r="I25">
+        <v>0.57805405405405397</v>
+      </c>
+      <c r="J25">
+        <v>0.59603825136611999</v>
+      </c>
+      <c r="K25">
+        <v>0.61024861878452996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>0.23188442211055199</v>
+      </c>
+      <c r="C26">
+        <v>0.336928934010152</v>
+      </c>
+      <c r="D26">
+        <v>0.40384615384615302</v>
+      </c>
+      <c r="E26">
+        <v>0.45676165803108798</v>
+      </c>
+      <c r="F26">
+        <v>0.48719895287958098</v>
+      </c>
+      <c r="G26">
+        <v>0.521772486772486</v>
+      </c>
+      <c r="H26">
+        <v>0.54176470588235204</v>
+      </c>
+      <c r="I26">
+        <v>0.56121621621621598</v>
+      </c>
+      <c r="J26">
+        <v>0.57896174863387895</v>
+      </c>
+      <c r="K26">
+        <v>0.591132596685082</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <v>0.23238693467336599</v>
+      </c>
+      <c r="C27">
+        <v>0.35540609137055801</v>
+      </c>
+      <c r="D27">
+        <v>0.42212820512820498</v>
+      </c>
+      <c r="E27">
+        <v>0.47215025906735703</v>
+      </c>
+      <c r="F27">
+        <v>0.50578534031413602</v>
+      </c>
+      <c r="G27">
+        <v>0.53494708994708995</v>
+      </c>
+      <c r="H27">
+        <v>0.55649732620320802</v>
+      </c>
+      <c r="I27">
+        <v>0.57910810810810798</v>
+      </c>
+      <c r="J27">
+        <v>0.59524590163934399</v>
+      </c>
+      <c r="K27">
+        <v>0.609917127071823</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>0.22293969849246201</v>
+      </c>
+      <c r="C28">
+        <v>0.34550761421319798</v>
+      </c>
+      <c r="D28">
+        <v>0.41097435897435802</v>
+      </c>
+      <c r="E28">
+        <v>0.45556994818652802</v>
+      </c>
+      <c r="F28">
+        <v>0.49010471204188399</v>
+      </c>
+      <c r="G28">
+        <v>0.53137566137566095</v>
+      </c>
+      <c r="H28">
+        <v>0.55636363636363595</v>
+      </c>
+      <c r="I28">
+        <v>0.57743243243243203</v>
+      </c>
+      <c r="J28">
+        <v>0.59314207650273199</v>
+      </c>
+      <c r="K28">
+        <v>0.60643646408839702</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>0.21266331658291401</v>
+      </c>
+      <c r="C29">
+        <v>0.31076142131979601</v>
+      </c>
+      <c r="D29">
+        <v>0.38371794871794801</v>
+      </c>
+      <c r="E29">
+        <v>0.43393782383419599</v>
+      </c>
+      <c r="F29">
+        <v>0.47678010471204102</v>
+      </c>
+      <c r="G29">
+        <v>0.50497354497354496</v>
+      </c>
+      <c r="H29">
+        <v>0.53299465240641697</v>
+      </c>
+      <c r="I29">
+        <v>0.55081081081080996</v>
+      </c>
+      <c r="J29">
+        <v>0.57554644808743105</v>
+      </c>
+      <c r="K29">
+        <v>0.592596685082873</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>0.01</v>
+      </c>
+      <c r="C32">
+        <v>0.02</v>
+      </c>
+      <c r="D32">
+        <v>0.03</v>
+      </c>
+      <c r="E32">
+        <v>0.04</v>
+      </c>
+      <c r="F32">
+        <v>0.5</v>
+      </c>
+      <c r="G32">
+        <v>0.06</v>
+      </c>
+      <c r="H32">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I32">
+        <v>0.08</v>
+      </c>
+      <c r="J32">
+        <v>0.09</v>
+      </c>
+      <c r="K32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>0.22195979899497401</v>
+      </c>
+      <c r="C33">
+        <v>0.32441624365482202</v>
+      </c>
+      <c r="D33">
+        <v>0.40105128205128199</v>
+      </c>
+      <c r="E33">
+        <v>0.46875647668393799</v>
+      </c>
+      <c r="F33">
+        <v>0.51324607329842897</v>
+      </c>
+      <c r="G33">
+        <v>0.53915343915343905</v>
+      </c>
+      <c r="H33">
+        <v>0.55933155080213903</v>
+      </c>
+      <c r="I33">
+        <v>0.58135135135135096</v>
+      </c>
+      <c r="J33">
+        <v>0.595628415300546</v>
+      </c>
+      <c r="K33">
+        <v>0.61339779005524797</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34">
+        <v>0.234723618090452</v>
+      </c>
+      <c r="C34">
+        <v>0.34586294416243601</v>
+      </c>
+      <c r="D34">
+        <v>0.43241025641025599</v>
+      </c>
+      <c r="E34">
+        <v>0.47466321243523302</v>
+      </c>
+      <c r="F34">
+        <v>0.51115183246073304</v>
+      </c>
+      <c r="G34">
+        <v>0.541190476190476</v>
+      </c>
+      <c r="H34">
+        <v>0.55735294117647005</v>
+      </c>
+      <c r="I34">
+        <v>0.57578378378378303</v>
+      </c>
+      <c r="J34">
+        <v>0.59054644808743095</v>
+      </c>
+      <c r="K34">
+        <v>0.60209944751381195</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35">
+        <v>0.23798994974874299</v>
+      </c>
+      <c r="C35">
+        <v>0.357030456852791</v>
+      </c>
+      <c r="D35">
+        <v>0.40928205128205097</v>
+      </c>
+      <c r="E35">
+        <v>0.45784974093264202</v>
+      </c>
+      <c r="F35">
+        <v>0.49366492146596802</v>
+      </c>
+      <c r="G35">
+        <v>0.52264550264550202</v>
+      </c>
+      <c r="H35">
+        <v>0.54695187165775405</v>
+      </c>
+      <c r="I35">
+        <v>0.56813513513513503</v>
+      </c>
+      <c r="J35">
+        <v>0.58191256830601101</v>
+      </c>
+      <c r="K35">
+        <v>0.59767955801104899</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36">
+        <v>0.23967336683417001</v>
+      </c>
+      <c r="C36">
+        <v>0.345126903553299</v>
+      </c>
+      <c r="D36">
+        <v>0.42984615384615299</v>
+      </c>
+      <c r="E36">
+        <v>0.47722797927461102</v>
+      </c>
+      <c r="F36">
+        <v>0.50667539267015604</v>
+      </c>
+      <c r="G36">
+        <v>0.53343915343915305</v>
+      </c>
+      <c r="H36">
+        <v>0.54997326203208496</v>
+      </c>
+      <c r="I36">
+        <v>0.57102702702702701</v>
+      </c>
+      <c r="J36">
+        <v>0.59071038251366104</v>
+      </c>
+      <c r="K36">
+        <v>0.60560773480662899</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37">
+        <v>0.249497487437185</v>
+      </c>
+      <c r="C37">
+        <v>0.34629441624365398</v>
+      </c>
+      <c r="D37">
+        <v>0.410205128205128</v>
+      </c>
+      <c r="E37">
+        <v>0.45834196891191697</v>
+      </c>
+      <c r="F37">
+        <v>0.497382198952879</v>
+      </c>
+      <c r="G37">
+        <v>0.52714285714285702</v>
+      </c>
+      <c r="H37">
+        <v>0.55163101604277998</v>
+      </c>
+      <c r="I37">
+        <v>0.57194594594594494</v>
+      </c>
+      <c r="J37">
+        <v>0.59183060109289598</v>
+      </c>
+      <c r="K37">
+        <v>0.60588397790055204</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38">
+        <v>0.235753768844221</v>
+      </c>
+      <c r="C38">
+        <v>0.34616751269035501</v>
+      </c>
+      <c r="D38">
+        <v>0.40482051282051201</v>
+      </c>
+      <c r="E38">
+        <v>0.46119170984455898</v>
+      </c>
+      <c r="F38">
+        <v>0.50400523560209398</v>
+      </c>
+      <c r="G38">
+        <v>0.52944444444444405</v>
+      </c>
+      <c r="H38">
+        <v>0.554652406417112</v>
+      </c>
+      <c r="I38">
+        <v>0.57251351351351298</v>
+      </c>
+      <c r="J38">
+        <v>0.59207650273224</v>
+      </c>
+      <c r="K38">
+        <v>0.60671270718231995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39">
+        <v>0.22542713567839101</v>
+      </c>
+      <c r="C39">
+        <v>0.32482233502537999</v>
+      </c>
+      <c r="D39">
+        <v>0.39043589743589702</v>
+      </c>
+      <c r="E39">
+        <v>0.43883419689119102</v>
+      </c>
+      <c r="F39">
+        <v>0.47518324607329798</v>
+      </c>
+      <c r="G39">
+        <v>0.50738095238095204</v>
+      </c>
+      <c r="H39">
+        <v>0.535320855614973</v>
+      </c>
+      <c r="I39">
+        <v>0.56051351351351297</v>
+      </c>
+      <c r="J39">
+        <v>0.57688524590163903</v>
+      </c>
+      <c r="K39">
+        <v>0.598674033149171</v>
       </c>
     </row>
   </sheetData>
@@ -1229,10 +3767,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1242,31 +3780,34 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="C1">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="D1">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="E1">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="F1">
         <v>0.5</v>
       </c>
       <c r="G1">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="H1">
-        <v>0.7</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I1">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="J1">
-        <v>0.9</v>
+        <v>0.09</v>
+      </c>
+      <c r="K1">
+        <v>0.1</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -1274,64 +3815,1099 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.23597989949748699</v>
+        <v>7.1630041770623307E-2</v>
       </c>
       <c r="C2">
-        <v>0.34266497461928902</v>
+        <v>0.13326570997248099</v>
       </c>
       <c r="D2">
-        <v>0.41379487179487101</v>
+        <v>0.17985497225253499</v>
       </c>
       <c r="E2">
-        <v>0.46468911917098399</v>
+        <v>0.21713148564788201</v>
       </c>
       <c r="F2">
-        <v>0.50350785340314097</v>
+        <v>0.243558086989593</v>
       </c>
       <c r="G2">
-        <v>0.53021164021164002</v>
+        <v>0.27189742604887901</v>
       </c>
       <c r="H2">
-        <v>0.55724598930481195</v>
+        <v>0.29344089364661602</v>
       </c>
       <c r="I2">
-        <v>0.57145945945945897</v>
+        <v>0.30417548866998001</v>
       </c>
       <c r="J2">
-        <v>0.58754098360655704</v>
+        <v>0.32210551946987298</v>
       </c>
       <c r="K2">
-        <v>0.60218232044198905</v>
+        <v>0.337389878960284</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
+      <c r="B3">
+        <v>7.0397744322757805E-2</v>
+      </c>
+      <c r="C3">
+        <v>0.14063537748548399</v>
+      </c>
+      <c r="D3">
+        <v>0.18547454900315799</v>
+      </c>
+      <c r="E3">
+        <v>0.220359779514641</v>
+      </c>
+      <c r="F3">
+        <v>0.24556711958261199</v>
+      </c>
+      <c r="G3">
+        <v>0.27223931170388999</v>
+      </c>
+      <c r="H3">
+        <v>0.29081311097874102</v>
+      </c>
+      <c r="I3">
+        <v>0.31176062932937698</v>
+      </c>
+      <c r="J3">
+        <v>0.326812792168586</v>
+      </c>
+      <c r="K3">
+        <v>0.337176060435667</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
+      <c r="B4">
+        <v>6.7512268872446907E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.12907414013586899</v>
+      </c>
+      <c r="D4">
+        <v>0.17683745181765301</v>
+      </c>
+      <c r="E4">
+        <v>0.21209770107133599</v>
+      </c>
+      <c r="F4">
+        <v>0.23953542959518201</v>
+      </c>
+      <c r="G4">
+        <v>0.26788481237987199</v>
+      </c>
+      <c r="H4">
+        <v>0.28830775561822097</v>
+      </c>
+      <c r="I4">
+        <v>0.30518332320182801</v>
+      </c>
+      <c r="J4">
+        <v>0.31681080602797801</v>
+      </c>
+      <c r="K4">
+        <v>0.32992556787893201</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
+      <c r="B5">
+        <v>6.9610448725684004E-2</v>
+      </c>
+      <c r="C5">
+        <v>0.142719820103132</v>
+      </c>
+      <c r="D5">
+        <v>0.19859031264010699</v>
+      </c>
+      <c r="E5">
+        <v>0.227711460001431</v>
+      </c>
+      <c r="F5">
+        <v>0.25036219883785799</v>
+      </c>
+      <c r="G5">
+        <v>0.27189226401312899</v>
+      </c>
+      <c r="H5">
+        <v>0.28829396744597702</v>
+      </c>
+      <c r="I5">
+        <v>0.30520597636830799</v>
+      </c>
+      <c r="J5">
+        <v>0.32233602489456498</v>
+      </c>
+      <c r="K5">
+        <v>0.33533805562501501</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
+      <c r="B6">
+        <v>7.1218665621104904E-2</v>
+      </c>
+      <c r="C6">
+        <v>0.135623932275036</v>
+      </c>
+      <c r="D6">
+        <v>0.18572265902462701</v>
+      </c>
+      <c r="E6">
+        <v>0.22503484494349099</v>
+      </c>
+      <c r="F6">
+        <v>0.25455913966264998</v>
+      </c>
+      <c r="G6">
+        <v>0.274539876037384</v>
+      </c>
+      <c r="H6">
+        <v>0.29806758974946701</v>
+      </c>
+      <c r="I6">
+        <v>0.31361451971604098</v>
+      </c>
+      <c r="J6">
+        <v>0.32957870468540801</v>
+      </c>
+      <c r="K6">
+        <v>0.341425169765318</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
+      <c r="B7">
+        <v>6.2514708572916994E-2</v>
+      </c>
+      <c r="C7">
+        <v>0.12857074752004999</v>
+      </c>
+      <c r="D7">
+        <v>0.18811944974407399</v>
+      </c>
+      <c r="E7">
+        <v>0.23057339078015399</v>
+      </c>
+      <c r="F7">
+        <v>0.26304539213408101</v>
+      </c>
+      <c r="G7">
+        <v>0.291048285057602</v>
+      </c>
+      <c r="H7">
+        <v>0.31270836675028901</v>
+      </c>
+      <c r="I7">
+        <v>0.33281203555688199</v>
+      </c>
+      <c r="J7">
+        <v>0.34981500781512798</v>
+      </c>
+      <c r="K7">
+        <v>0.36394711825300302</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
+      </c>
+      <c r="B8">
+        <v>6.5882446231004699E-2</v>
+      </c>
+      <c r="C8">
+        <v>0.133536745882018</v>
+      </c>
+      <c r="D8">
+        <v>0.18093060480951101</v>
+      </c>
+      <c r="E8">
+        <v>0.220823549873117</v>
+      </c>
+      <c r="F8">
+        <v>0.25396859864721499</v>
+      </c>
+      <c r="G8">
+        <v>0.28538371082892799</v>
+      </c>
+      <c r="H8">
+        <v>0.30616631008552803</v>
+      </c>
+      <c r="I8">
+        <v>0.31960887452090597</v>
+      </c>
+      <c r="J8">
+        <v>0.33982847962404</v>
+      </c>
+      <c r="K8">
+        <v>0.34997972562289198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0.01</v>
+      </c>
+      <c r="C11">
+        <v>0.02</v>
+      </c>
+      <c r="D11">
+        <v>0.03</v>
+      </c>
+      <c r="E11">
+        <v>0.04</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <v>0.06</v>
+      </c>
+      <c r="H11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I11">
+        <v>0.08</v>
+      </c>
+      <c r="J11">
+        <v>0.09</v>
+      </c>
+      <c r="K11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>7.0921791191512401E-2</v>
+      </c>
+      <c r="C12">
+        <v>0.137598565403483</v>
+      </c>
+      <c r="D12">
+        <v>0.17817347816170201</v>
+      </c>
+      <c r="E12">
+        <v>0.21839043525759899</v>
+      </c>
+      <c r="F12">
+        <v>0.248257411843437</v>
+      </c>
+      <c r="G12">
+        <v>0.27493067709358499</v>
+      </c>
+      <c r="H12">
+        <v>0.294780019241562</v>
+      </c>
+      <c r="I12">
+        <v>0.31256679649647501</v>
+      </c>
+      <c r="J12">
+        <v>0.32588816537425602</v>
+      </c>
+      <c r="K12">
+        <v>0.33689597010169597</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>6.9263168011809095E-2</v>
+      </c>
+      <c r="C13">
+        <v>0.13254355715562499</v>
+      </c>
+      <c r="D13">
+        <v>0.18308979818351301</v>
+      </c>
+      <c r="E13">
+        <v>0.21814650590509399</v>
+      </c>
+      <c r="F13">
+        <v>0.245259201164815</v>
+      </c>
+      <c r="G13">
+        <v>0.270342430230958</v>
+      </c>
+      <c r="H13">
+        <v>0.28995227345129998</v>
+      </c>
+      <c r="I13">
+        <v>0.30317816122844199</v>
+      </c>
+      <c r="J13">
+        <v>0.31844110118173802</v>
+      </c>
+      <c r="K13">
+        <v>0.33155864270854901</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>6.6131403165177405E-2</v>
+      </c>
+      <c r="C14">
+        <v>0.13098424458607699</v>
+      </c>
+      <c r="D14">
+        <v>0.17857683077676401</v>
+      </c>
+      <c r="E14">
+        <v>0.21026963289788</v>
+      </c>
+      <c r="F14">
+        <v>0.23769422030269799</v>
+      </c>
+      <c r="G14">
+        <v>0.26209842903684</v>
+      </c>
+      <c r="H14">
+        <v>0.28087106993919497</v>
+      </c>
+      <c r="I14">
+        <v>0.29864586251507003</v>
+      </c>
+      <c r="J14">
+        <v>0.31449707152496598</v>
+      </c>
+      <c r="K14">
+        <v>0.32807395170180598</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>7.0890166362627197E-2</v>
+      </c>
+      <c r="C15">
+        <v>0.14228052264618901</v>
+      </c>
+      <c r="D15">
+        <v>0.18245005169827699</v>
+      </c>
+      <c r="E15">
+        <v>0.21602186297300599</v>
+      </c>
+      <c r="F15">
+        <v>0.24037759133879899</v>
+      </c>
+      <c r="G15">
+        <v>0.25760945037765698</v>
+      </c>
+      <c r="H15">
+        <v>0.281163111100664</v>
+      </c>
+      <c r="I15">
+        <v>0.29749450052570098</v>
+      </c>
+      <c r="J15">
+        <v>0.31290146010715297</v>
+      </c>
+      <c r="K15">
+        <v>0.326508330386517</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>7.2611982196725294E-2</v>
+      </c>
+      <c r="C16">
+        <v>0.13740334935232401</v>
+      </c>
+      <c r="D16">
+        <v>0.19325243641436601</v>
+      </c>
+      <c r="E16">
+        <v>0.23391233546205001</v>
+      </c>
+      <c r="F16">
+        <v>0.25671050549582303</v>
+      </c>
+      <c r="G16">
+        <v>0.28311993374897199</v>
+      </c>
+      <c r="H16">
+        <v>0.29851788410840402</v>
+      </c>
+      <c r="I16">
+        <v>0.31224282146545801</v>
+      </c>
+      <c r="J16">
+        <v>0.33064088761754301</v>
+      </c>
+      <c r="K16">
+        <v>0.34433969580055201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>6.9526233074315505E-2</v>
+      </c>
+      <c r="C17">
+        <v>0.137813089492375</v>
+      </c>
+      <c r="D17">
+        <v>0.187073731999406</v>
+      </c>
+      <c r="E17">
+        <v>0.22526923447046601</v>
+      </c>
+      <c r="F17">
+        <v>0.25969920907215699</v>
+      </c>
+      <c r="G17">
+        <v>0.28285727526351201</v>
+      </c>
+      <c r="H17">
+        <v>0.30367763491126198</v>
+      </c>
+      <c r="I17">
+        <v>0.323467988890351</v>
+      </c>
+      <c r="J17">
+        <v>0.338772142372114</v>
+      </c>
+      <c r="K17">
+        <v>0.35430270297536798</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>6.2687491692485095E-2</v>
+      </c>
+      <c r="C18">
+        <v>0.12645734227604999</v>
+      </c>
+      <c r="D18">
+        <v>0.17680277286846199</v>
+      </c>
+      <c r="E18">
+        <v>0.21335953753199</v>
+      </c>
+      <c r="F18">
+        <v>0.24627574400723701</v>
+      </c>
+      <c r="G18">
+        <v>0.26784505550258297</v>
+      </c>
+      <c r="H18">
+        <v>0.29031903619237598</v>
+      </c>
+      <c r="I18">
+        <v>0.31367457129152798</v>
+      </c>
+      <c r="J18">
+        <v>0.332924222109583</v>
+      </c>
+      <c r="K18">
+        <v>0.34487824732942701</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0.01</v>
+      </c>
+      <c r="C21">
+        <v>0.02</v>
+      </c>
+      <c r="D21">
+        <v>0.03</v>
+      </c>
+      <c r="E21">
+        <v>0.04</v>
+      </c>
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+      <c r="G21">
+        <v>0.06</v>
+      </c>
+      <c r="H21">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I21">
+        <v>0.08</v>
+      </c>
+      <c r="J21">
+        <v>0.09</v>
+      </c>
+      <c r="K21">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>6.8314933492747504E-2</v>
+      </c>
+      <c r="C22">
+        <v>0.136844777357057</v>
+      </c>
+      <c r="D22">
+        <v>0.185115569606599</v>
+      </c>
+      <c r="E22">
+        <v>0.21575223632799101</v>
+      </c>
+      <c r="F22">
+        <v>0.246217390113389</v>
+      </c>
+      <c r="G22">
+        <v>0.27251466110689798</v>
+      </c>
+      <c r="H22">
+        <v>0.29551401118265302</v>
+      </c>
+      <c r="I22">
+        <v>0.31024559075111902</v>
+      </c>
+      <c r="J22">
+        <v>0.32738612999205202</v>
+      </c>
+      <c r="K22">
+        <v>0.33898623893735302</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>6.6020020427553006E-2</v>
+      </c>
+      <c r="C23">
+        <v>0.139491597887858</v>
+      </c>
+      <c r="D23">
+        <v>0.1853971389639</v>
+      </c>
+      <c r="E23">
+        <v>0.214624332032959</v>
+      </c>
+      <c r="F23">
+        <v>0.24211760684832601</v>
+      </c>
+      <c r="G23">
+        <v>0.26650095086664199</v>
+      </c>
+      <c r="H23">
+        <v>0.28654887353790298</v>
+      </c>
+      <c r="I23">
+        <v>0.30168105375375098</v>
+      </c>
+      <c r="J23">
+        <v>0.31905841461286499</v>
+      </c>
+      <c r="K23">
+        <v>0.32985059132613698</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>6.6196307217339295E-2</v>
+      </c>
+      <c r="C24">
+        <v>0.133101757592686</v>
+      </c>
+      <c r="D24">
+        <v>0.18347039017783801</v>
+      </c>
+      <c r="E24">
+        <v>0.21961963028616399</v>
+      </c>
+      <c r="F24">
+        <v>0.24949539763174899</v>
+      </c>
+      <c r="G24">
+        <v>0.27243753317362901</v>
+      </c>
+      <c r="H24">
+        <v>0.29890858453001101</v>
+      </c>
+      <c r="I24">
+        <v>0.31525274240613799</v>
+      </c>
+      <c r="J24">
+        <v>0.32949912646803903</v>
+      </c>
+      <c r="K24">
+        <v>0.34288751833659897</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <v>7.0394290166596096E-2</v>
+      </c>
+      <c r="C25">
+        <v>0.13667040139626199</v>
+      </c>
+      <c r="D25">
+        <v>0.185225942895301</v>
+      </c>
+      <c r="E25">
+        <v>0.21863950382689201</v>
+      </c>
+      <c r="F25">
+        <v>0.23828267125680999</v>
+      </c>
+      <c r="G25">
+        <v>0.26494168921896899</v>
+      </c>
+      <c r="H25">
+        <v>0.27826026227447898</v>
+      </c>
+      <c r="I25">
+        <v>0.30027129301421301</v>
+      </c>
+      <c r="J25">
+        <v>0.31437367676501599</v>
+      </c>
+      <c r="K25">
+        <v>0.32750575653030201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <v>7.0837054701631902E-2</v>
+      </c>
+      <c r="C26">
+        <v>0.14289802969249599</v>
+      </c>
+      <c r="D26">
+        <v>0.188449620581261</v>
+      </c>
+      <c r="E26">
+        <v>0.227431789232169</v>
+      </c>
+      <c r="F26">
+        <v>0.25352283530477798</v>
+      </c>
+      <c r="G26">
+        <v>0.27691699480272902</v>
+      </c>
+      <c r="H26">
+        <v>0.29446101012430098</v>
+      </c>
+      <c r="I26">
+        <v>0.31557251630918598</v>
+      </c>
+      <c r="J26">
+        <v>0.330831953400336</v>
+      </c>
+      <c r="K26">
+        <v>0.345455845954732</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <v>6.4624814206258999E-2</v>
+      </c>
+      <c r="C27">
+        <v>0.14204270360204899</v>
+      </c>
+      <c r="D27">
+        <v>0.187387165106493</v>
+      </c>
+      <c r="E27">
+        <v>0.22535695911554901</v>
+      </c>
+      <c r="F27">
+        <v>0.25401610820909298</v>
+      </c>
+      <c r="G27">
+        <v>0.283627895881707</v>
+      </c>
+      <c r="H27">
+        <v>0.30894812318681097</v>
+      </c>
+      <c r="I27">
+        <v>0.32598752786111601</v>
+      </c>
+      <c r="J27">
+        <v>0.33949858195502802</v>
+      </c>
+      <c r="K27">
+        <v>0.35616306891851002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>5.7992931456060902E-2</v>
+      </c>
+      <c r="C28">
+        <v>0.120673004313519</v>
+      </c>
+      <c r="D28">
+        <v>0.17047311908034901</v>
+      </c>
+      <c r="E28">
+        <v>0.21215607885478299</v>
+      </c>
+      <c r="F28">
+        <v>0.244065667567755</v>
+      </c>
+      <c r="G28">
+        <v>0.27033291095606998</v>
+      </c>
+      <c r="H28">
+        <v>0.29462091428086001</v>
+      </c>
+      <c r="I28">
+        <v>0.31317999809402502</v>
+      </c>
+      <c r="J28">
+        <v>0.33293820917608802</v>
+      </c>
+      <c r="K28">
+        <v>0.34937190113817701</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>0.01</v>
+      </c>
+      <c r="C31">
+        <v>0.02</v>
+      </c>
+      <c r="D31">
+        <v>0.03</v>
+      </c>
+      <c r="E31">
+        <v>0.04</v>
+      </c>
+      <c r="F31">
+        <v>0.5</v>
+      </c>
+      <c r="G31">
+        <v>0.06</v>
+      </c>
+      <c r="H31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I31">
+        <v>0.08</v>
+      </c>
+      <c r="J31">
+        <v>0.09</v>
+      </c>
+      <c r="K31">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>6.7116101978643303E-2</v>
+      </c>
+      <c r="C32">
+        <v>0.126230801084526</v>
+      </c>
+      <c r="D32">
+        <v>0.174225671434071</v>
+      </c>
+      <c r="E32">
+        <v>0.22112070048011001</v>
+      </c>
+      <c r="F32">
+        <v>0.25551379769642302</v>
+      </c>
+      <c r="G32">
+        <v>0.279272390804301</v>
+      </c>
+      <c r="H32">
+        <v>0.29667688408185899</v>
+      </c>
+      <c r="I32">
+        <v>0.31613112104374402</v>
+      </c>
+      <c r="J32">
+        <v>0.32858751700349198</v>
+      </c>
+      <c r="K32">
+        <v>0.34577856348289299</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>7.1678859187391003E-2</v>
+      </c>
+      <c r="C33">
+        <v>0.14266153893981301</v>
+      </c>
+      <c r="D33">
+        <v>0.19465066124522701</v>
+      </c>
+      <c r="E33">
+        <v>0.230983150065038</v>
+      </c>
+      <c r="F33">
+        <v>0.259867139270133</v>
+      </c>
+      <c r="G33">
+        <v>0.28258861707629201</v>
+      </c>
+      <c r="H33">
+        <v>0.29664619305740098</v>
+      </c>
+      <c r="I33">
+        <v>0.31332090882174202</v>
+      </c>
+      <c r="J33">
+        <v>0.32540904405061799</v>
+      </c>
+      <c r="K33">
+        <v>0.336854938049928</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>6.8691328427515894E-2</v>
+      </c>
+      <c r="C34">
+        <v>0.142304810750329</v>
+      </c>
+      <c r="D34">
+        <v>0.18088088167187799</v>
+      </c>
+      <c r="E34">
+        <v>0.21594758310210599</v>
+      </c>
+      <c r="F34">
+        <v>0.24429909806595401</v>
+      </c>
+      <c r="G34">
+        <v>0.26653774126841401</v>
+      </c>
+      <c r="H34">
+        <v>0.28550518891788701</v>
+      </c>
+      <c r="I34">
+        <v>0.30243266063568103</v>
+      </c>
+      <c r="J34">
+        <v>0.31347179158328398</v>
+      </c>
+      <c r="K34">
+        <v>0.32800883511913198</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35">
+        <v>6.6466316077682094E-2</v>
+      </c>
+      <c r="C35">
+        <v>0.13514616886379099</v>
+      </c>
+      <c r="D35">
+        <v>0.189447909856477</v>
+      </c>
+      <c r="E35">
+        <v>0.22539747173117899</v>
+      </c>
+      <c r="F35">
+        <v>0.25215710060316199</v>
+      </c>
+      <c r="G35">
+        <v>0.26903320356472199</v>
+      </c>
+      <c r="H35">
+        <v>0.28581134003710301</v>
+      </c>
+      <c r="I35">
+        <v>0.30083330318694701</v>
+      </c>
+      <c r="J35">
+        <v>0.32109335319598897</v>
+      </c>
+      <c r="K35">
+        <v>0.33421784320435799</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36">
+        <v>7.3102694623062903E-2</v>
+      </c>
+      <c r="C36">
+        <v>0.13558495999682399</v>
+      </c>
+      <c r="D36">
+        <v>0.18136180456123299</v>
+      </c>
+      <c r="E36">
+        <v>0.21603327617687501</v>
+      </c>
+      <c r="F36">
+        <v>0.24641552350413901</v>
+      </c>
+      <c r="G36">
+        <v>0.269114091132865</v>
+      </c>
+      <c r="H36">
+        <v>0.28949504985230901</v>
+      </c>
+      <c r="I36">
+        <v>0.30619171740185303</v>
+      </c>
+      <c r="J36">
+        <v>0.32400894407199998</v>
+      </c>
+      <c r="K36">
+        <v>0.338028377788126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37">
+        <v>6.9672030664833906E-2</v>
+      </c>
+      <c r="C37">
+        <v>0.139378703953981</v>
+      </c>
+      <c r="D37">
+        <v>0.18337657683099101</v>
+      </c>
+      <c r="E37">
+        <v>0.22595010704402399</v>
+      </c>
+      <c r="F37">
+        <v>0.25992903792636701</v>
+      </c>
+      <c r="G37">
+        <v>0.28224838904969901</v>
+      </c>
+      <c r="H37">
+        <v>0.302293398879104</v>
+      </c>
+      <c r="I37">
+        <v>0.31959377981945902</v>
+      </c>
+      <c r="J37">
+        <v>0.34029563525443401</v>
+      </c>
+      <c r="K37">
+        <v>0.35848544300726798</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38">
+        <v>6.5257836041585596E-2</v>
+      </c>
+      <c r="C38">
+        <v>0.130207024297954</v>
+      </c>
+      <c r="D38">
+        <v>0.17572593415142099</v>
+      </c>
+      <c r="E38">
+        <v>0.21205474111943501</v>
+      </c>
+      <c r="F38">
+        <v>0.24152821365900001</v>
+      </c>
+      <c r="G38">
+        <v>0.270360268177739</v>
+      </c>
+      <c r="H38">
+        <v>0.292283742762107</v>
+      </c>
+      <c r="I38">
+        <v>0.31393542361972498</v>
+      </c>
+      <c r="J38">
+        <v>0.33067777493127898</v>
+      </c>
+      <c r="K38">
+        <v>0.35072722056422001</v>
       </c>
     </row>
   </sheetData>
@@ -1341,10 +4917,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1737,6 +5313,396 @@
         <v>38.21</v>
       </c>
     </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0.01</v>
+      </c>
+      <c r="C14">
+        <v>0.02</v>
+      </c>
+      <c r="D14">
+        <v>0.03</v>
+      </c>
+      <c r="E14">
+        <v>0.04</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14">
+        <v>0.06</v>
+      </c>
+      <c r="H14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I14">
+        <v>0.08</v>
+      </c>
+      <c r="J14">
+        <v>0.09</v>
+      </c>
+      <c r="K14">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>0.30967550674350802</v>
+      </c>
+      <c r="C15">
+        <v>0.33512631877552701</v>
+      </c>
+      <c r="D15">
+        <v>0.34898752333684002</v>
+      </c>
+      <c r="E15">
+        <v>0.35774333836000699</v>
+      </c>
+      <c r="F15">
+        <v>0.36366051035928598</v>
+      </c>
+      <c r="G15">
+        <v>0.36842652685702398</v>
+      </c>
+      <c r="H15">
+        <v>0.37245681001623998</v>
+      </c>
+      <c r="I15">
+        <v>0.37613813634958898</v>
+      </c>
+      <c r="J15">
+        <v>0.37860426627659199</v>
+      </c>
+      <c r="K15">
+        <v>0.38103218133279299</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>0.31156145824793202</v>
+      </c>
+      <c r="C16">
+        <v>0.33543928001601903</v>
+      </c>
+      <c r="D16">
+        <v>0.34873298659462199</v>
+      </c>
+      <c r="E16">
+        <v>0.35765154527353399</v>
+      </c>
+      <c r="F16">
+        <v>0.36411561375720197</v>
+      </c>
+      <c r="G16">
+        <v>0.36946825469979999</v>
+      </c>
+      <c r="H16">
+        <v>0.37310674702419699</v>
+      </c>
+      <c r="I16">
+        <v>0.37632991562814799</v>
+      </c>
+      <c r="J16">
+        <v>0.378964024802105</v>
+      </c>
+      <c r="K16">
+        <v>0.38124559000778302</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>0.31276208262370198</v>
+      </c>
+      <c r="C17">
+        <v>0.33629316208597498</v>
+      </c>
+      <c r="D17">
+        <v>0.34870573632836099</v>
+      </c>
+      <c r="E17">
+        <v>0.35744403256929103</v>
+      </c>
+      <c r="F17">
+        <v>0.363555321789577</v>
+      </c>
+      <c r="G17">
+        <v>0.36859192458212497</v>
+      </c>
+      <c r="H17">
+        <v>0.37212745339346798</v>
+      </c>
+      <c r="I17">
+        <v>0.37566317874134098</v>
+      </c>
+      <c r="J17">
+        <v>0.37822416499709999</v>
+      </c>
+      <c r="K17">
+        <v>0.38074917087516003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>0.311100834876471</v>
+      </c>
+      <c r="C18">
+        <v>0.335674241711717</v>
+      </c>
+      <c r="D18">
+        <v>0.34855277656728201</v>
+      </c>
+      <c r="E18">
+        <v>0.35739863647589598</v>
+      </c>
+      <c r="F18">
+        <v>0.36370869502969699</v>
+      </c>
+      <c r="G18">
+        <v>0.36883680180481199</v>
+      </c>
+      <c r="H18">
+        <v>0.37240955730193498</v>
+      </c>
+      <c r="I18">
+        <v>0.37555396709927402</v>
+      </c>
+      <c r="J18">
+        <v>0.378169749984752</v>
+      </c>
+      <c r="K18">
+        <v>0.38049230316446597</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>0.31128386351584902</v>
+      </c>
+      <c r="C19">
+        <v>0.33587598602383301</v>
+      </c>
+      <c r="D19">
+        <v>0.34892139704639702</v>
+      </c>
+      <c r="E19">
+        <v>0.35731950269114798</v>
+      </c>
+      <c r="F19">
+        <v>0.36408539212758601</v>
+      </c>
+      <c r="G19">
+        <v>0.36931113609622102</v>
+      </c>
+      <c r="H19">
+        <v>0.37303196708382602</v>
+      </c>
+      <c r="I19">
+        <v>0.37592436441828098</v>
+      </c>
+      <c r="J19">
+        <v>0.37878566890610299</v>
+      </c>
+      <c r="K19">
+        <v>0.38103120791266898</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>0.311607136791613</v>
+      </c>
+      <c r="C20">
+        <v>0.33605311479738498</v>
+      </c>
+      <c r="D20">
+        <v>0.349058336514532</v>
+      </c>
+      <c r="E20">
+        <v>0.35857710633369599</v>
+      </c>
+      <c r="F20">
+        <v>0.36456443142864497</v>
+      </c>
+      <c r="G20">
+        <v>0.36916610075320799</v>
+      </c>
+      <c r="H20">
+        <v>0.37287024015680997</v>
+      </c>
+      <c r="I20">
+        <v>0.37608218967122797</v>
+      </c>
+      <c r="J20">
+        <v>0.37837359504196699</v>
+      </c>
+      <c r="K20">
+        <v>0.38086885467128101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <v>0.30843916119217202</v>
+      </c>
+      <c r="C21">
+        <v>0.33337591819149998</v>
+      </c>
+      <c r="D21">
+        <v>0.34705706377024698</v>
+      </c>
+      <c r="E21">
+        <v>0.35535878198256299</v>
+      </c>
+      <c r="F21">
+        <v>0.36109314081323801</v>
+      </c>
+      <c r="G21">
+        <v>0.36557027599185399</v>
+      </c>
+      <c r="H21">
+        <v>0.36885207540953902</v>
+      </c>
+      <c r="I21">
+        <v>0.37200190854284898</v>
+      </c>
+      <c r="J21">
+        <v>0.374636782584372</v>
+      </c>
+      <c r="K21">
+        <v>0.37693492081629698</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>0.01</v>
+      </c>
+      <c r="C24">
+        <v>0.02</v>
+      </c>
+      <c r="D24">
+        <v>0.03</v>
+      </c>
+      <c r="E24">
+        <v>0.04</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+      <c r="G24">
+        <v>0.06</v>
+      </c>
+      <c r="H24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I24">
+        <v>0.08</v>
+      </c>
+      <c r="J24">
+        <v>0.09</v>
+      </c>
+      <c r="K24">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>0.31636735642990299</v>
+      </c>
+      <c r="C25">
+        <v>0.34174779794652799</v>
+      </c>
+      <c r="D25">
+        <v>0.355369721742612</v>
+      </c>
+      <c r="E25">
+        <v>0.36410692007920997</v>
+      </c>
+      <c r="F25">
+        <v>0.37000781859647802</v>
+      </c>
+      <c r="G25">
+        <v>0.374669007301831</v>
+      </c>
+      <c r="H25">
+        <v>0.37840242752529901</v>
+      </c>
+      <c r="I25">
+        <v>0.38156284837407001</v>
+      </c>
+      <c r="J25">
+        <v>0.383941094732341</v>
+      </c>
+      <c r="K25">
+        <v>0.386230016358377</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1744,10 +5710,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2140,6 +6106,396 @@
         <v>25.09</v>
       </c>
     </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0.01</v>
+      </c>
+      <c r="C14">
+        <v>0.02</v>
+      </c>
+      <c r="D14">
+        <v>0.03</v>
+      </c>
+      <c r="E14">
+        <v>0.04</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14">
+        <v>0.06</v>
+      </c>
+      <c r="H14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I14">
+        <v>0.08</v>
+      </c>
+      <c r="J14">
+        <v>0.09</v>
+      </c>
+      <c r="K14">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>0.12930322535105199</v>
+      </c>
+      <c r="C15">
+        <v>0.16391651588362099</v>
+      </c>
+      <c r="D15">
+        <v>0.18891793455939501</v>
+      </c>
+      <c r="E15">
+        <v>0.20306434544197399</v>
+      </c>
+      <c r="F15">
+        <v>0.21388204538429501</v>
+      </c>
+      <c r="G15">
+        <v>0.222270722792027</v>
+      </c>
+      <c r="H15">
+        <v>0.22962180671745699</v>
+      </c>
+      <c r="I15">
+        <v>0.235917582216917</v>
+      </c>
+      <c r="J15">
+        <v>0.240610974236877</v>
+      </c>
+      <c r="K15">
+        <v>0.245018066042969</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>0.12814655627570001</v>
+      </c>
+      <c r="C16">
+        <v>0.165184324439729</v>
+      </c>
+      <c r="D16">
+        <v>0.18750960180631801</v>
+      </c>
+      <c r="E16">
+        <v>0.20287959280158699</v>
+      </c>
+      <c r="F16">
+        <v>0.21473050466088001</v>
+      </c>
+      <c r="G16">
+        <v>0.22400514654824</v>
+      </c>
+      <c r="H16">
+        <v>0.231106144067632</v>
+      </c>
+      <c r="I16">
+        <v>0.23661978271771</v>
+      </c>
+      <c r="J16">
+        <v>0.241771131938602</v>
+      </c>
+      <c r="K16">
+        <v>0.245657340460292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>0.128751400256507</v>
+      </c>
+      <c r="C17">
+        <v>0.16446394089278199</v>
+      </c>
+      <c r="D17">
+        <v>0.18617866065119801</v>
+      </c>
+      <c r="E17">
+        <v>0.201257448257569</v>
+      </c>
+      <c r="F17">
+        <v>0.212250871340048</v>
+      </c>
+      <c r="G17">
+        <v>0.221933885293843</v>
+      </c>
+      <c r="H17">
+        <v>0.22891113664954399</v>
+      </c>
+      <c r="I17">
+        <v>0.235086522212265</v>
+      </c>
+      <c r="J17">
+        <v>0.24041601184105499</v>
+      </c>
+      <c r="K17">
+        <v>0.244496524223002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>0.12637414173721101</v>
+      </c>
+      <c r="C18">
+        <v>0.16148540872609901</v>
+      </c>
+      <c r="D18">
+        <v>0.18288342183252901</v>
+      </c>
+      <c r="E18">
+        <v>0.199428959564597</v>
+      </c>
+      <c r="F18">
+        <v>0.21187460279002401</v>
+      </c>
+      <c r="G18">
+        <v>0.221586800476231</v>
+      </c>
+      <c r="H18">
+        <v>0.228492394067285</v>
+      </c>
+      <c r="I18">
+        <v>0.235276375084981</v>
+      </c>
+      <c r="J18">
+        <v>0.240200314599715</v>
+      </c>
+      <c r="K18">
+        <v>0.24469542272214001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>0.126913208665031</v>
+      </c>
+      <c r="C19">
+        <v>0.161654625089587</v>
+      </c>
+      <c r="D19">
+        <v>0.18524604225910099</v>
+      </c>
+      <c r="E19">
+        <v>0.201141312863896</v>
+      </c>
+      <c r="F19">
+        <v>0.21267472765391901</v>
+      </c>
+      <c r="G19">
+        <v>0.22291423413730399</v>
+      </c>
+      <c r="H19">
+        <v>0.22966057875749199</v>
+      </c>
+      <c r="I19">
+        <v>0.23562189034235101</v>
+      </c>
+      <c r="J19">
+        <v>0.24134611457220601</v>
+      </c>
+      <c r="K19">
+        <v>0.246142469406016</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>0.13154537351009599</v>
+      </c>
+      <c r="C20">
+        <v>0.16911330321534199</v>
+      </c>
+      <c r="D20">
+        <v>0.19018210314291301</v>
+      </c>
+      <c r="E20">
+        <v>0.20796870219473201</v>
+      </c>
+      <c r="F20">
+        <v>0.21964709211240499</v>
+      </c>
+      <c r="G20">
+        <v>0.22772027576743301</v>
+      </c>
+      <c r="H20">
+        <v>0.233969561856089</v>
+      </c>
+      <c r="I20">
+        <v>0.239184644119419</v>
+      </c>
+      <c r="J20">
+        <v>0.244313337113824</v>
+      </c>
+      <c r="K20">
+        <v>0.24885017130077</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <v>0.134444168314162</v>
+      </c>
+      <c r="C21">
+        <v>0.16939577369405301</v>
+      </c>
+      <c r="D21">
+        <v>0.19213054987794401</v>
+      </c>
+      <c r="E21">
+        <v>0.20746300473562199</v>
+      </c>
+      <c r="F21">
+        <v>0.21877205948363199</v>
+      </c>
+      <c r="G21">
+        <v>0.22697364921456301</v>
+      </c>
+      <c r="H21">
+        <v>0.23313146644597399</v>
+      </c>
+      <c r="I21">
+        <v>0.23889029588754199</v>
+      </c>
+      <c r="J21">
+        <v>0.243826986722498</v>
+      </c>
+      <c r="K21">
+        <v>0.24788416703574301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>0.01</v>
+      </c>
+      <c r="C24">
+        <v>0.02</v>
+      </c>
+      <c r="D24">
+        <v>0.03</v>
+      </c>
+      <c r="E24">
+        <v>0.04</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+      <c r="G24">
+        <v>0.06</v>
+      </c>
+      <c r="H24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I24">
+        <v>0.08</v>
+      </c>
+      <c r="J24">
+        <v>0.09</v>
+      </c>
+      <c r="K24">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>0.128374661232381</v>
+      </c>
+      <c r="C25">
+        <v>0.16675777028529401</v>
+      </c>
+      <c r="D25">
+        <v>0.19036697602828301</v>
+      </c>
+      <c r="E25">
+        <v>0.206903147403246</v>
+      </c>
+      <c r="F25">
+        <v>0.21751635173632899</v>
+      </c>
+      <c r="G25">
+        <v>0.22589612846450999</v>
+      </c>
+      <c r="H25">
+        <v>0.23343280635878899</v>
+      </c>
+      <c r="I25">
+        <v>0.238629804362641</v>
+      </c>
+      <c r="J25">
+        <v>0.243703040418212</v>
+      </c>
+      <c r="K25">
+        <v>0.24794223935446499</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
